--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Slitrk2-Ptprs.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Slitrk2-Ptprs.xlsx
@@ -531,16 +531,16 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.1546466666666667</v>
+        <v>0.2438943333333334</v>
       </c>
       <c r="H2">
-        <v>0.46394</v>
+        <v>0.7316830000000001</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.847811666666666</v>
+        <v>5.273684</v>
       </c>
       <c r="N2">
-        <v>11.543435</v>
+        <v>15.821052</v>
       </c>
       <c r="O2">
-        <v>0.0396810199351781</v>
+        <v>0.0510821201937383</v>
       </c>
       <c r="P2">
-        <v>0.0396810199351781</v>
+        <v>0.0510821201937383</v>
       </c>
       <c r="Q2">
-        <v>0.595051248211111</v>
+        <v>1.286221643390667</v>
       </c>
       <c r="R2">
-        <v>5.355461233899999</v>
+        <v>11.575994790516</v>
       </c>
       <c r="S2">
-        <v>0.0396810199351781</v>
+        <v>0.0510821201937383</v>
       </c>
       <c r="T2">
-        <v>0.0396810199351781</v>
+        <v>0.0510821201937383</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,16 +593,16 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.1546466666666667</v>
+        <v>0.2438943333333334</v>
       </c>
       <c r="H3">
-        <v>0.46394</v>
+        <v>0.7316830000000001</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>173.406322</v>
       </c>
       <c r="O3">
-        <v>0.5960911739155557</v>
+        <v>0.5598845502029881</v>
       </c>
       <c r="P3">
-        <v>0.5960911739155558</v>
+        <v>0.5598845502029881</v>
       </c>
       <c r="Q3">
-        <v>8.938903225408888</v>
+        <v>14.09760643332511</v>
       </c>
       <c r="R3">
-        <v>80.45012902867998</v>
+        <v>126.878457899926</v>
       </c>
       <c r="S3">
-        <v>0.5960911739155557</v>
+        <v>0.5598845502029881</v>
       </c>
       <c r="T3">
-        <v>0.5960911739155558</v>
+        <v>0.5598845502029881</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,16 +655,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.1546466666666667</v>
+        <v>0.2438943333333334</v>
       </c>
       <c r="H4">
-        <v>0.46394</v>
+        <v>0.7316830000000001</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>29.25249166666667</v>
+        <v>32.95839133333334</v>
       </c>
       <c r="N4">
-        <v>87.757475</v>
+        <v>98.87517400000002</v>
       </c>
       <c r="O4">
-        <v>0.3016698335405271</v>
+        <v>0.3192425840231603</v>
       </c>
       <c r="P4">
-        <v>0.3016698335405271</v>
+        <v>0.3192425840231604</v>
       </c>
       <c r="Q4">
-        <v>4.523800327944445</v>
+        <v>8.038364881982446</v>
       </c>
       <c r="R4">
-        <v>40.7142029515</v>
+        <v>72.34528393784203</v>
       </c>
       <c r="S4">
-        <v>0.3016698335405271</v>
+        <v>0.3192425840231603</v>
       </c>
       <c r="T4">
-        <v>0.3016698335405271</v>
+        <v>0.3192425840231604</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,16 +717,16 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.1546466666666667</v>
+        <v>0.2438943333333334</v>
       </c>
       <c r="H5">
-        <v>0.46394</v>
+        <v>0.7316830000000001</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.066157</v>
+        <v>7.205150000000001</v>
       </c>
       <c r="N5">
-        <v>18.198471</v>
+        <v>21.61545</v>
       </c>
       <c r="O5">
-        <v>0.06255797260873912</v>
+        <v>0.06979074558011317</v>
       </c>
       <c r="P5">
-        <v>0.06255797260873913</v>
+        <v>0.06979074558011318</v>
       </c>
       <c r="Q5">
-        <v>0.9381109595266666</v>
+        <v>1.757295255816667</v>
       </c>
       <c r="R5">
-        <v>8.442998635739999</v>
+        <v>15.81565730235</v>
       </c>
       <c r="S5">
-        <v>0.06255797260873912</v>
+        <v>0.06979074558011317</v>
       </c>
       <c r="T5">
-        <v>0.06255797260873913</v>
+        <v>0.06979074558011318</v>
       </c>
     </row>
   </sheetData>
